--- a/Tables/Sources/gameplay/Deliver/Deliver.xlsx
+++ b/Tables/Sources/gameplay/Deliver/Deliver.xlsx
@@ -55,13 +55,13 @@
     <t>Item|1001|250;Item|1002|250;Coin|500;Food|30</t>
   </si>
   <si>
-    <t>Kongfu|2005;Kongfu|2006;Kongfu|2007</t>
+    <t>Kongfu|2005|1;Kongfu|2006|1;Kongfu|2007|1</t>
   </si>
   <si>
     <t>Item|1003|250;Item|1004|250;Coin|500;Food|30</t>
   </si>
   <si>
-    <t>Arms|201|1;Arms|202|1;Arms|203</t>
+    <t>Arms|201|1;Arms|202|1;Arms|203|1</t>
   </si>
   <si>
     <t>Item|1003|350;Item|1004|350;Coin|500;Food|30</t>
@@ -73,8 +73,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -93,18 +93,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -116,85 +123,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,14 +162,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -231,7 +231,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,6 +252,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -264,13 +324,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,61 +420,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,91 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,17 +461,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,7 +489,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,50 +524,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,151 +549,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,14 +1065,14 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="49.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="46" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>

--- a/Tables/Sources/gameplay/Deliver/Deliver.xlsx
+++ b/Tables/Sources/gameplay/Deliver/Deliver.xlsx
@@ -17,11 +17,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>车队名字</t>
+  </si>
+  <si>
     <t>普通奖励池</t>
   </si>
   <si>
@@ -43,6 +46,9 @@
     <t>Level</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>NormalReward</t>
   </si>
   <si>
@@ -52,16 +58,28 @@
     <t>Duration</t>
   </si>
   <si>
+    <t>青龙车队</t>
+  </si>
+  <si>
     <t>Item|1001|250;Item|1002|250;Coin|500;Food|30</t>
   </si>
   <si>
     <t>Kongfu|2005|1;Kongfu|2006|1;Kongfu|2007|1</t>
   </si>
   <si>
+    <t>白虎车队</t>
+  </si>
+  <si>
     <t>Item|1003|250;Item|1004|250;Coin|500;Food|30</t>
   </si>
   <si>
     <t>Arms|201|1;Arms|202|1;Arms|203|1</t>
+  </si>
+  <si>
+    <t>朱雀车队</t>
+  </si>
+  <si>
+    <t>玄武车队</t>
   </si>
   <si>
     <t>Item|1003|350;Item|1004|350;Coin|500;Food|30</t>
@@ -73,9 +91,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -93,6 +111,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -100,8 +140,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,6 +156,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -123,83 +241,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -207,31 +248,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,19 +270,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,151 +432,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,9 +481,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,15 +529,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -509,17 +544,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,20 +570,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,10 +582,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +594,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1060,24 +1078,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="49.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="46" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="46" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1090,102 +1109,126 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2">
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2">
         <v>720</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2">
         <v>720</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2">
         <v>1080</v>
       </c>
     </row>

--- a/Tables/Sources/gameplay/Deliver/Deliver.xlsx
+++ b/Tables/Sources/gameplay/Deliver/Deliver.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -61,28 +61,37 @@
     <t>青龙车队</t>
   </si>
   <si>
-    <t>Item|1001|250;Item|1002|250;Coin|500;Food|30</t>
-  </si>
-  <si>
-    <t>Kongfu|2005|1;Kongfu|2006|1;Kongfu|2007|1</t>
+    <t>Item|1001|250;Item|1002|250;Coin|500;Food|20</t>
+  </si>
+  <si>
+    <t>Medicine|101|2;Item|1008|1</t>
   </si>
   <si>
     <t>白虎车队</t>
   </si>
   <si>
-    <t>Item|1003|250;Item|1004|250;Coin|500;Food|30</t>
-  </si>
-  <si>
-    <t>Arms|201|1;Arms|202|1;Arms|203|1</t>
+    <t>Item|1003|250;Item|1004|250;Coin|600;Food|30</t>
+  </si>
+  <si>
+    <t>Medicine|102|2;Item|1007|1</t>
   </si>
   <si>
     <t>朱雀车队</t>
   </si>
   <si>
+    <t>Item|1003|350;Item|1004|350;Coin|800;Food|40</t>
+  </si>
+  <si>
+    <t>Medicine|103|2;Item|3102|1</t>
+  </si>
+  <si>
     <t>玄武车队</t>
   </si>
   <si>
-    <t>Item|1003|350;Item|1004|350;Coin|500;Food|30</t>
+    <t>Item|1003|450;Item|1004|450;Coin|1000;Food|50</t>
+  </si>
+  <si>
+    <t>Medicine|104|2;Item|3101|1</t>
   </si>
 </sst>
 </file>
@@ -111,21 +120,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -134,15 +128,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,14 +196,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -171,22 +203,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -195,39 +211,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,15 +225,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,187 +279,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,8 +502,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,45 +577,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -582,10 +591,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,19 +603,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,112 +624,112 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1083,15 +1092,15 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="49.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="46" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="50.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
@@ -1178,7 +1187,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="2">
-        <v>600</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1195,7 +1204,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="2">
-        <v>720</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1206,10 +1215,10 @@
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2">
         <v>720</v>
@@ -1220,16 +1229,16 @@
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2">
-        <v>1080</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>
